--- a/data/strategies/华泰场外策略结果.xlsx
+++ b/data/strategies/华泰场外策略结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
   <si>
     <t>南方中证申万有色金属ETF联接A</t>
   </si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>7.26%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>27.29%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>20.67%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>23.41%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>22.85%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>28.72%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>12.55%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>28.96%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>31.41%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>26.48%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>24.01%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>28.65%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -149,76 +146,76 @@
     <t>161028.OF</t>
   </si>
   <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>1.32%</t>
-  </si>
-  <si>
-    <t>12.19%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>15.47%</t>
-  </si>
-  <si>
-    <t>34.12%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>29.84%</t>
-  </si>
-  <si>
-    <t>32.97%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>20.17%</t>
-  </si>
-  <si>
-    <t>26.31%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>28.29%</t>
-  </si>
-  <si>
-    <t>30.59%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>29.74%</t>
-  </si>
-  <si>
-    <t>32.00%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>2.78%</t>
+  </si>
+  <si>
+    <t>-4.02%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>6.09%</t>
+  </si>
+  <si>
+    <t>16.62%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>31.73%</t>
+  </si>
+  <si>
+    <t>23.37%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>23.22%</t>
+  </si>
+  <si>
+    <t>29.79%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>27.54%</t>
+  </si>
+  <si>
+    <t>32.13%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>29.44%</t>
+  </si>
+  <si>
+    <t>32.39%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,30 +230,24 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>002460.SZ</t>
   </si>
   <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>002050.SZ</t>
+  </si>
+  <si>
     <t>002340.SZ</t>
   </si>
   <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600885.SH</t>
-  </si>
-  <si>
-    <t>002050.SZ</t>
-  </si>
-  <si>
     <t>300750.SZ</t>
   </si>
   <si>
@@ -278,102 +269,102 @@
     <t>603659.SH</t>
   </si>
   <si>
-    <t>600019.SH</t>
-  </si>
-  <si>
-    <t>600010.SH</t>
-  </si>
-  <si>
     <t>600884.SH</t>
   </si>
   <si>
-    <t>601225.SH</t>
-  </si>
-  <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
     <t>300073.SZ</t>
   </si>
   <si>
-    <t>5.29%</t>
-  </si>
-  <si>
-    <t>3.32%</t>
-  </si>
-  <si>
-    <t>2.95%</t>
-  </si>
-  <si>
-    <t>2.27%</t>
-  </si>
-  <si>
-    <t>2.06%</t>
-  </si>
-  <si>
-    <t>2.04%</t>
-  </si>
-  <si>
-    <t>2.02%</t>
-  </si>
-  <si>
-    <t>2.00%</t>
-  </si>
-  <si>
-    <t>1.95%</t>
-  </si>
-  <si>
-    <t>1.94%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.60%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>1.55%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.45%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
+    <t>300037.SZ</t>
+  </si>
+  <si>
+    <t>002709.SZ</t>
+  </si>
+  <si>
+    <t>300568.SZ</t>
+  </si>
+  <si>
+    <t>002850.SZ</t>
+  </si>
+  <si>
+    <t>300409.SZ</t>
+  </si>
+  <si>
+    <t>600563.SH</t>
+  </si>
+  <si>
+    <t>215.08%</t>
+  </si>
+  <si>
+    <t>205.84%</t>
+  </si>
+  <si>
+    <t>203.80%</t>
+  </si>
+  <si>
+    <t>202.32%</t>
+  </si>
+  <si>
+    <t>202.28%</t>
+  </si>
+  <si>
+    <t>200.32%</t>
+  </si>
+  <si>
+    <t>194.56%</t>
+  </si>
+  <si>
+    <t>193.72%</t>
+  </si>
+  <si>
+    <t>192.16%</t>
+  </si>
+  <si>
+    <t>175.44%</t>
+  </si>
+  <si>
+    <t>175.36%</t>
+  </si>
+  <si>
+    <t>159.84%</t>
+  </si>
+  <si>
+    <t>152.68%</t>
+  </si>
+  <si>
+    <t>137.16%</t>
+  </si>
+  <si>
+    <t>118.76%</t>
+  </si>
+  <si>
+    <t>81.60%</t>
+  </si>
+  <si>
+    <t>60.04%</t>
+  </si>
+  <si>
+    <t>54.96%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
   </si>
   <si>
     <t>赣锋锂业</t>
   </si>
   <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
     <t>格林美</t>
   </si>
   <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宏发股份</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
     <t>宁德时代</t>
   </si>
   <si>
@@ -395,45 +386,45 @@
     <t>璞泰来</t>
   </si>
   <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
-    <t>包钢股份</t>
-  </si>
-  <si>
     <t>杉杉股份</t>
   </si>
   <si>
-    <t>陕西煤业</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
     <t>当升科技</t>
   </si>
   <si>
+    <t>新宙邦</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>星源材质</t>
+  </si>
+  <si>
+    <t>科达利</t>
+  </si>
+  <si>
+    <t>道氏技术</t>
+  </si>
+  <si>
+    <t>法拉电子</t>
+  </si>
+  <si>
     <t>锂系列产品</t>
   </si>
   <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
+  </si>
+  <si>
     <t>三元材料</t>
   </si>
   <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>继电器产品</t>
-  </si>
-  <si>
-    <t>空调冰箱之元器件及部件</t>
-  </si>
-  <si>
     <t>动力电池系统</t>
   </si>
   <si>
@@ -455,79 +446,88 @@
     <t>负极材料</t>
   </si>
   <si>
-    <t>其他业务</t>
-  </si>
-  <si>
-    <t>板材</t>
-  </si>
-  <si>
     <t>正极材料</t>
   </si>
   <si>
-    <t>原选煤</t>
-  </si>
-  <si>
     <t>多元材料</t>
   </si>
   <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>13.98%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>-21.42%</t>
-  </si>
-  <si>
-    <t>66.08%</t>
-  </si>
-  <si>
-    <t>33.59%</t>
-  </si>
-  <si>
-    <t>35.90%</t>
-  </si>
-  <si>
-    <t>23.00%</t>
-  </si>
-  <si>
-    <t>27.90%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>-7.24%</t>
+    <t>锂离子电池电解液</t>
+  </si>
+  <si>
+    <t>锂离子电池材料产品</t>
+  </si>
+  <si>
+    <t>锂离子电池隔膜</t>
+  </si>
+  <si>
+    <t>锂电池结构件</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>电子元器件</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>-22.77%</t>
+  </si>
+  <si>
+    <t>121.25%</t>
+  </si>
+  <si>
+    <t>79.54%</t>
+  </si>
+  <si>
+    <t>18.91%</t>
+  </si>
+  <si>
+    <t>37.99%</t>
+  </si>
+  <si>
+    <t>89.06%</t>
+  </si>
+  <si>
+    <t>159.47%</t>
+  </si>
+  <si>
+    <t>31.20%</t>
+  </si>
+  <si>
+    <t>102.33%</t>
+  </si>
+  <si>
+    <t>52.67%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -539,52 +539,37 @@
     <t>锂电池</t>
   </si>
   <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>钢铁</t>
-  </si>
-  <si>
     <t>电气设备</t>
   </si>
   <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
   </si>
   <si>
     <t xml:space="preserve">锂电池 </t>
   </si>
   <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>51.14%</t>
-  </si>
-  <si>
-    <t>10.52%</t>
-  </si>
-  <si>
-    <t>8.77%</t>
-  </si>
-  <si>
-    <t>7.51%</t>
-  </si>
-  <si>
-    <t>4.88%</t>
-  </si>
-  <si>
-    <t>4.83%</t>
-  </si>
-  <si>
-    <t>4.64%</t>
-  </si>
-  <si>
-    <t>4.18%</t>
-  </si>
-  <si>
-    <t>3.54%</t>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>60.94%</t>
+  </si>
+  <si>
+    <t>12.56%</t>
+  </si>
+  <si>
+    <t>6.97%</t>
+  </si>
+  <si>
+    <t>6.91%</t>
+  </si>
+  <si>
+    <t>6.62%</t>
+  </si>
+  <si>
+    <t>6.00%</t>
   </si>
 </sst>
 </file>
@@ -948,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,10 +1005,10 @@
         <v>1.017034304105503</v>
       </c>
       <c r="E3">
-        <v>1.067860508953817</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="F3">
-        <v>1.048043329154</v>
+        <v>1.048024056029295</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1046,10 +1031,10 @@
         <v>0.9947405604835545</v>
       </c>
       <c r="E4">
-        <v>1.074458058435438</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="F4">
-        <v>1.049466242061841</v>
+        <v>1.049453680738725</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1072,10 +1057,10 @@
         <v>0.9875971426328597</v>
       </c>
       <c r="E5">
-        <v>1.05937794533459</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="F5">
-        <v>1.043785120312013</v>
+        <v>1.043771347135833</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1098,10 +1083,10 @@
         <v>1.00007849909726</v>
       </c>
       <c r="E6">
-        <v>1.086710650329878</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="F6">
-        <v>1.070869762816075</v>
+        <v>1.070852004507701</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1124,10 +1109,10 @@
         <v>0.9957610487479394</v>
       </c>
       <c r="E7">
-        <v>1.077285579641847</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="F7">
-        <v>1.06633124506511</v>
+        <v>1.066325092580319</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1150,10 +1135,10 @@
         <v>0.9556480100478845</v>
       </c>
       <c r="E8">
-        <v>1.04052780395853</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="F8">
-        <v>1.029168202136096</v>
+        <v>1.029152914143584</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1176,10 +1161,10 @@
         <v>0.9651464008163906</v>
       </c>
       <c r="E9">
-        <v>1.063147973609802</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="F9">
-        <v>1.04735096677401</v>
+        <v>1.047337496561096</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1202,10 +1187,10 @@
         <v>0.961927937828715</v>
       </c>
       <c r="E10">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="F10">
-        <v>1.024966236410756</v>
+        <v>1.024956448366771</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1228,10 +1213,10 @@
         <v>0.9430881544862234</v>
       </c>
       <c r="E11">
-        <v>1.005655042412818</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="F11">
-        <v>1.00888963503714</v>
+        <v>1.008877726250291</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1254,10 +1239,10 @@
         <v>0.9603579558835074</v>
       </c>
       <c r="E12">
-        <v>1.02827521206409</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="F12">
-        <v>1.021700461483786</v>
+        <v>1.021690370476534</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1280,10 +1265,10 @@
         <v>0.9788837428369574</v>
       </c>
       <c r="E13">
-        <v>1.034872761545712</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="F13">
-        <v>1.031634720872155</v>
+        <v>1.031631341666494</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1306,10 +1291,10 @@
         <v>0.9773922599890101</v>
       </c>
       <c r="E14">
-        <v>1.008482563619227</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="F14">
-        <v>1.009795977180515</v>
+        <v>1.00979047723199</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1332,10 +1317,10 @@
         <v>0.9771567626972288</v>
       </c>
       <c r="E15">
-        <v>1.051837888784166</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="F15">
-        <v>1.03975316691081</v>
+        <v>1.039738787808097</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1358,10 +1343,10 @@
         <v>1.000549493680823</v>
       </c>
       <c r="E16">
-        <v>1.073515551366635</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="F16">
-        <v>1.062920584468721</v>
+        <v>1.062914129020664</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1384,10 +1369,10 @@
         <v>0.9747232906821571</v>
       </c>
       <c r="E17">
-        <v>1.100848256361923</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="F17">
-        <v>1.071114234792477</v>
+        <v>1.071103794212226</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1410,10 +1395,10 @@
         <v>0.9693853520684512</v>
       </c>
       <c r="E18">
-        <v>1.098020735155514</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="F18">
-        <v>1.072520797113631</v>
+        <v>1.072503947695056</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1436,10 +1421,10 @@
         <v>0.9841431823534029</v>
       </c>
       <c r="E19">
-        <v>1.067860508953817</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="F19">
-        <v>1.057728681431868</v>
+        <v>1.057709408307162</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1462,10 +1447,10 @@
         <v>0.9833581913807991</v>
       </c>
       <c r="E20">
-        <v>1.073515551366635</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="F20">
-        <v>1.058090664095801</v>
+        <v>1.058084208647744</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1488,10 +1473,10 @@
         <v>0.9558050082424052</v>
       </c>
       <c r="E21">
-        <v>1.033930254476909</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="F21">
-        <v>1.024229182072156</v>
+        <v>1.024207182278055</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1514,10 +1499,10 @@
         <v>0.9287228196875736</v>
       </c>
       <c r="E22">
-        <v>1.015080113100848</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="F22">
-        <v>1.00655441971784</v>
+        <v>1.006530905107407</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1540,10 +1525,10 @@
         <v>0.9485045921971896</v>
       </c>
       <c r="E23">
-        <v>1.016022620169651</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="F23">
-        <v>1.013694505216556</v>
+        <v>1.013689611194563</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1566,10 +1551,10 @@
         <v>0.9389277023314231</v>
       </c>
       <c r="E24">
-        <v>1.057492931196984</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="F24">
-        <v>1.0386636040533</v>
+        <v>1.038662042627236</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1592,10 +1577,10 @@
         <v>0.9326477745505926</v>
       </c>
       <c r="E25">
-        <v>1.054665409990575</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="F25">
-        <v>1.04044140353974</v>
+        <v>1.040433433275352</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1618,10 +1603,10 @@
         <v>0.932726273647853</v>
       </c>
       <c r="E26">
-        <v>1.0311027332705</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="F26">
-        <v>1.016424551334987</v>
+        <v>1.016420869166059</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1644,10 +1629,10 @@
         <v>0.9011696365491796</v>
       </c>
       <c r="E27">
-        <v>1.002827521206409</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="F27">
-        <v>0.9846038274975815</v>
+        <v>0.984585509872408</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1670,10 +1655,10 @@
         <v>0.9220503964204412</v>
       </c>
       <c r="E28">
-        <v>1.019792648444863</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="F28">
-        <v>1.00532950300057</v>
+        <v>1.005324911941843</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1696,10 +1681,10 @@
         <v>0.9455216265012951</v>
       </c>
       <c r="E29">
-        <v>1.04995287464656</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="F29">
-        <v>1.036986434061277</v>
+        <v>1.03698426670868</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1722,10 +1707,10 @@
         <v>0.9401051887903289</v>
       </c>
       <c r="E30">
-        <v>1.062205466540999</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="F30">
-        <v>1.050549411415633</v>
+        <v>1.050542047077777</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1748,10 +1733,10 @@
         <v>0.9961535442342412</v>
       </c>
       <c r="E31">
-        <v>1.039585296889727</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="F31">
-        <v>1.077896844861276</v>
+        <v>1.077887662743823</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1774,10 +1759,10 @@
         <v>1.029751157861685</v>
       </c>
       <c r="E32">
-        <v>1.024505183788878</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="F32">
-        <v>1.082819426322881</v>
+        <v>1.082809032352362</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1800,10 +1785,10 @@
         <v>1.055891357249392</v>
       </c>
       <c r="E33">
-        <v>1.007540056550424</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="F33">
-        <v>1.105118623823208</v>
+        <v>1.105094503286243</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1826,10 +1811,10 @@
         <v>1.021979747232907</v>
       </c>
       <c r="E34">
-        <v>0.9896324222431668</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="F34">
-        <v>1.0872754759343</v>
+        <v>1.087268461169443</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1852,10 +1837,10 @@
         <v>1.011931862783578</v>
       </c>
       <c r="E35">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="F35">
-        <v>1.054072950999768</v>
+        <v>1.054069315440574</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1878,10 +1863,10 @@
         <v>1.01240285736714</v>
       </c>
       <c r="E36">
-        <v>0.9377945334590009</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="F36">
-        <v>1.04440962259654</v>
+        <v>1.044392260470899</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1904,10 +1889,10 @@
         <v>0.982102205824633</v>
       </c>
       <c r="E37">
-        <v>0.9180018850141376</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="F37">
-        <v>1.014181041855581</v>
+        <v>1.014168270788667</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1930,10 +1915,10 @@
         <v>1.003767956668498</v>
       </c>
       <c r="E38">
-        <v>0.9538171536286523</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="F38">
-        <v>1.048924424590186</v>
+        <v>1.048902168442551</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1956,10 +1941,10 @@
         <v>1.012638354658921</v>
       </c>
       <c r="E39">
-        <v>0.9575871819038644</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="F39">
-        <v>1.040272276909534</v>
+        <v>1.040250323725166</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1982,10 +1967,10 @@
         <v>1.052751393358976</v>
       </c>
       <c r="E40">
-        <v>0.9651272384542884</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="F40">
-        <v>1.071920270958393</v>
+        <v>1.071898923700557</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -2008,10 +1993,10 @@
         <v>1.052986890650757</v>
       </c>
       <c r="E41">
-        <v>0.9180018850141376</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="F41">
-        <v>1.043712891611001</v>
+        <v>1.043700120544086</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2034,10 +2019,10 @@
         <v>1.031478138001413</v>
       </c>
       <c r="E42">
-        <v>0.9245994344957587</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="F42">
-        <v>1.027455987268458</v>
+        <v>1.027449928003134</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2060,10 +2045,10 @@
         <v>1.028259675013737</v>
       </c>
       <c r="E43">
-        <v>0.8812441093308201</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="F43">
-        <v>0.9994636019000959</v>
+        <v>0.9994416953254608</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2086,10 +2071,10 @@
         <v>1.018133291467148</v>
       </c>
       <c r="E44">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="F44">
-        <v>0.9885071098609655</v>
+        <v>0.9885026120217053</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2112,10 +2097,10 @@
         <v>1.028416673208258</v>
       </c>
       <c r="E45">
-        <v>0.8821866163996231</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="F45">
-        <v>0.9935938281893064</v>
+        <v>0.9935905422031113</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2138,10 +2123,10 @@
         <v>1.050945914121987</v>
       </c>
       <c r="E46">
-        <v>0.9066918001885014</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="F46">
-        <v>1.031428697370016</v>
+        <v>1.031415017413303</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2164,10 +2149,10 @@
         <v>1.064055263364471</v>
       </c>
       <c r="E47">
-        <v>0.9132893496701224</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="F47">
-        <v>1.03329338631517</v>
+        <v>1.033286418160047</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2190,10 +2175,10 @@
         <v>1.076301122537091</v>
       </c>
       <c r="E48">
-        <v>0.889726672950047</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="F48">
-        <v>1.029046710328461</v>
+        <v>1.029044030268798</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2216,10 +2201,10 @@
         <v>1.059502315723369</v>
       </c>
       <c r="E49">
-        <v>0.8906691800188501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="F49">
-        <v>1.018388147405156</v>
+        <v>1.018379361470436</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2242,10 +2227,10 @@
         <v>1.067430724546668</v>
       </c>
       <c r="E50">
-        <v>0.9123468426013195</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="F50">
-        <v>1.028088070642533</v>
+        <v>1.028087208362467</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2268,10 +2253,10 @@
         <v>1.055891357249392</v>
       </c>
       <c r="E51">
-        <v>0.9132893496701224</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="F51">
-        <v>1.028258604187003</v>
+        <v>1.028251636031879</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2294,10 +2279,10 @@
         <v>1.044665986341157</v>
       </c>
       <c r="E52">
-        <v>0.8850141376060321</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="F52">
-        <v>1.007640226303836</v>
+        <v>1.007618622692467</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2320,10 +2305,10 @@
         <v>1.051181411413769</v>
       </c>
       <c r="E53">
-        <v>0.8963242224316682</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="F53">
-        <v>1.015078028310965</v>
+        <v>1.015057333589395</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2346,10 +2331,10 @@
         <v>1.013580343826046</v>
       </c>
       <c r="E54">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="F54">
-        <v>0.9791980644389882</v>
+        <v>0.979193566599728</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2372,10 +2357,10 @@
         <v>0.9914435983986183</v>
       </c>
       <c r="E55">
-        <v>0.8435438265786994</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="F55">
-        <v>0.9479789971523382</v>
+        <v>0.9479787874085384</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2398,10 +2383,10 @@
         <v>1.011931862783578</v>
       </c>
       <c r="E56">
-        <v>0.8576814326107447</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="F56">
-        <v>0.9594012221143602</v>
+        <v>0.9593836036351856</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2424,10 +2409,10 @@
         <v>1.014129837506869</v>
       </c>
       <c r="E57">
-        <v>0.8934967012252591</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="F57">
-        <v>0.9865959667364833</v>
+        <v>0.9865935896400868</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2450,10 +2435,10 @@
         <v>1.060601303085015</v>
       </c>
       <c r="E58">
-        <v>0.8821866163996231</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="F58">
-        <v>0.98949226181635</v>
+        <v>0.9894889758301548</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2476,10 +2461,10 @@
         <v>1.045136980924719</v>
       </c>
       <c r="E59">
-        <v>0.8925541941564561</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="F59">
-        <v>0.9967594854493211</v>
+        <v>0.9967384877644849</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2502,10 +2487,10 @@
         <v>1.042232514326085</v>
       </c>
       <c r="E60">
-        <v>0.8812441093308201</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="F60">
-        <v>0.983523656202019</v>
+        <v>0.983501749627384</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2528,10 +2513,10 @@
         <v>1.046000470994584</v>
       </c>
       <c r="E61">
-        <v>0.8982092365692743</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="F61">
-        <v>0.9987899227898701</v>
+        <v>0.998781742781682</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2554,10 +2539,10 @@
         <v>1.034775100086349</v>
       </c>
       <c r="E62">
-        <v>0.9095193213949105</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="F62">
-        <v>1.001251812167319</v>
+        <v>1.001244541048929</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2580,10 +2565,10 @@
         <v>1.043566998979512</v>
       </c>
       <c r="E63">
-        <v>0.9142318567389255</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="F63">
-        <v>1.008183809770772</v>
+        <v>1.00817073574059</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2606,10 +2591,10 @@
         <v>1.057853834680901</v>
       </c>
       <c r="E64">
-        <v>0.9085768143261075</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="F64">
-        <v>1.0190478132157</v>
+        <v>1.019046647972368</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2632,10 +2617,10 @@
         <v>1.064761755239815</v>
       </c>
       <c r="E65">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="F65">
-        <v>1.024250536862125</v>
+        <v>1.024230448067088</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2658,10 +2643,10 @@
         <v>1.080697071983672</v>
       </c>
       <c r="E66">
-        <v>0.8906691800188501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="F66">
-        <v>1.022425182537189</v>
+        <v>1.022416396602469</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2684,10 +2669,10 @@
         <v>1.073867650522019</v>
       </c>
       <c r="E67">
-        <v>0.8633364750235627</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="F67">
-        <v>1.000531690923126</v>
+        <v>1.000526890120599</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2710,10 +2695,10 @@
         <v>1.051338409608289</v>
       </c>
       <c r="E68">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="F68">
-        <v>0.9932758534475385</v>
+        <v>0.9932713556082784</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2736,10 +2721,10 @@
         <v>1.059502315723369</v>
       </c>
       <c r="E69">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="F69">
-        <v>1.019007762870869</v>
+        <v>1.018987674075831</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2762,10 +2747,10 @@
         <v>1.06798021822749</v>
       </c>
       <c r="E70">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="F70">
-        <v>1.023381314642906</v>
+        <v>1.023361225847868</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2788,10 +2773,10 @@
         <v>1.097260381505613</v>
       </c>
       <c r="E71">
-        <v>0.9029217719132893</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="F71">
-        <v>1.026231123158814</v>
+        <v>1.026217140238834</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2814,10 +2799,10 @@
         <v>1.10911374519193</v>
       </c>
       <c r="E72">
-        <v>0.9557021677662583</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="F72">
-        <v>1.059096370739866</v>
+        <v>1.059086629305614</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2840,10 +2825,10 @@
         <v>1.103618808383704</v>
       </c>
       <c r="E73">
-        <v>0.9509896324222431</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="F73">
-        <v>1.055159862376853</v>
+        <v>1.055155923854392</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2866,10 +2851,10 @@
         <v>1.101970327341236</v>
       </c>
       <c r="E74">
-        <v>0.9509896324222431</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="F74">
-        <v>1.048543901389772</v>
+        <v>1.048539962867311</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2892,10 +2877,10 @@
         <v>1.112253709082346</v>
       </c>
       <c r="E75">
-        <v>0.9528746465598491</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="F75">
-        <v>1.055492510131221</v>
+        <v>1.055476359858645</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2918,10 +2903,10 @@
         <v>1.098280869769998</v>
       </c>
       <c r="E76">
-        <v>0.9641847313854853</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="F76">
-        <v>1.064241416895962</v>
+        <v>1.064226175513184</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2944,10 +2929,10 @@
         <v>1.117748645890572</v>
       </c>
       <c r="E77">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="F77">
-        <v>1.06353238398534</v>
+        <v>1.063528748426145</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2970,10 +2955,10 @@
         <v>1.103697307480964</v>
       </c>
       <c r="E78">
-        <v>0.945334590009425</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="F78">
-        <v>1.056879333795256</v>
+        <v>1.056862577596147</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2996,10 +2981,10 @@
         <v>1.136195933746762</v>
       </c>
       <c r="E79">
-        <v>0.9679547596606973</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="F79">
-        <v>1.072706880823046</v>
+        <v>1.072691942403534</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3022,10 +3007,10 @@
         <v>1.143888845278279</v>
       </c>
       <c r="E80">
-        <v>0.9651272384542884</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="F80">
-        <v>1.074223301549261</v>
+        <v>1.074201954291425</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3048,10 +3033,10 @@
         <v>1.109506240678232</v>
       </c>
       <c r="E81">
-        <v>0.9839773798303488</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="F81">
-        <v>1.074281959489926</v>
+        <v>1.074262127048422</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3074,10 +3059,10 @@
         <v>1.15644870083994</v>
       </c>
       <c r="E82">
-        <v>0.9764373232799246</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="F82">
-        <v>1.095604865221772</v>
+        <v>1.095584426853735</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3100,10 +3085,10 @@
         <v>1.204725645655075</v>
       </c>
       <c r="E83">
-        <v>0.9500471253534402</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="F83">
-        <v>1.105434330250717</v>
+        <v>1.105411771139816</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3126,10 +3111,10 @@
         <v>1.27160687652092</v>
       </c>
       <c r="E84">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="F84">
-        <v>1.142641784158062</v>
+        <v>1.142638148598867</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3152,10 +3137,10 @@
         <v>1.244053693382526</v>
       </c>
       <c r="E85">
-        <v>0.9387370405278039</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="F85">
-        <v>1.11221972971798</v>
+        <v>1.112220988180778</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3178,10 +3163,10 @@
         <v>1.254886568804459</v>
       </c>
       <c r="E86">
-        <v>0.942507068803016</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="F86">
-        <v>1.119287636542952</v>
+        <v>1.119264471505518</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3204,10 +3189,10 @@
         <v>1.204097652876992</v>
       </c>
       <c r="E87">
-        <v>0.9236569274269556</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="F87">
-        <v>1.078256052463686</v>
+        <v>1.078256099073419</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3230,10 +3215,10 @@
         <v>1.192715283774237</v>
       </c>
       <c r="E88">
-        <v>0.9519321394910462</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="F88">
-        <v>1.088702790969691</v>
+        <v>1.088692746572173</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3256,10 +3241,10 @@
         <v>1.191616296412591</v>
       </c>
       <c r="E89">
-        <v>0.9924599434495758</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="F89">
-        <v>1.112988026998941</v>
+        <v>1.112987421072409</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3282,10 +3267,10 @@
         <v>1.197346730512599</v>
       </c>
       <c r="E90">
-        <v>0.9934024505183789</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="F90">
-        <v>1.12054731918585</v>
+        <v>1.120540607384259</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3308,10 +3293,10 @@
         <v>1.177564958002983</v>
       </c>
       <c r="E91">
-        <v>1.026390197926484</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="F91">
-        <v>1.129174908299261</v>
+        <v>1.129152302578627</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3334,10 +3319,10 @@
         <v>1.136745427427585</v>
       </c>
       <c r="E92">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="F92">
-        <v>1.107787360352609</v>
+        <v>1.107777572308623</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3360,10 +3345,10 @@
         <v>1.152759243268702</v>
       </c>
       <c r="E93">
-        <v>1.027332704995288</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="F93">
-        <v>1.113684159416364</v>
+        <v>1.11368017428417</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3386,10 +3371,10 @@
         <v>1.150011774864589</v>
       </c>
       <c r="E94">
-        <v>1.02827521206409</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="F94">
-        <v>1.108360986357335</v>
+        <v>1.108350895350083</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3412,10 +3397,10 @@
         <v>1.166418086192009</v>
       </c>
       <c r="E95">
-        <v>1.037700282752121</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="F95">
-        <v>1.118681721017873</v>
+        <v>1.118660024187038</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3438,10 +3423,10 @@
         <v>1.168537561818039</v>
       </c>
       <c r="E96">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="F96">
-        <v>1.119404933901</v>
+        <v>1.119395145857014</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3464,10 +3449,10 @@
         <v>1.18517937043724</v>
       </c>
       <c r="E97">
-        <v>1.036757775683318</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="F97">
-        <v>1.124985585000677</v>
+        <v>1.124969994044899</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3490,10 +3475,10 @@
         <v>1.176465970641338</v>
       </c>
       <c r="E98">
-        <v>1.079170593779453</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="F98">
-        <v>1.144937416201565</v>
+        <v>1.144919051966658</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3516,10 +3501,10 @@
         <v>1.181332914671481</v>
       </c>
       <c r="E99">
-        <v>1.130065975494816</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="F99">
-        <v>1.175168498198788</v>
+        <v>1.175166587199724</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3542,10 +3527,10 @@
         <v>1.219718973231808</v>
       </c>
       <c r="E100">
-        <v>1.116870876531574</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="F100">
-        <v>1.177064156229189</v>
+        <v>1.177048821626944</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3568,10 +3553,10 @@
         <v>1.226234398304419</v>
       </c>
       <c r="E101">
-        <v>1.111215834118756</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="F101">
-        <v>1.168023336330605</v>
+        <v>1.16801991051521</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3594,10 +3579,10 @@
         <v>1.2468796608839</v>
       </c>
       <c r="E102">
-        <v>1.106503298774741</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="F102">
-        <v>1.173137023017581</v>
+        <v>1.17311467365048</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3620,10 +3605,10 @@
         <v>1.227254886568804</v>
       </c>
       <c r="E103">
-        <v>1.133836003770028</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="F103">
-        <v>1.177661418755172</v>
+        <v>1.177659810719374</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3646,10 +3631,10 @@
         <v>1.243739696993485</v>
       </c>
       <c r="E104">
-        <v>1.113100848256362</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="F104">
-        <v>1.168352782558415</v>
+        <v>1.168337144992904</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3672,10 +3657,10 @@
         <v>1.236125284559227</v>
       </c>
       <c r="E105">
-        <v>1.105560791705938</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="F105">
-        <v>1.156976780508899</v>
+        <v>1.156960537016856</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3698,10 +3683,10 @@
         <v>1.285422717638747</v>
       </c>
       <c r="E106">
-        <v>1.103675777568332</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="F106">
-        <v>1.167568032122647</v>
+        <v>1.16756400038072</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3724,10 +3709,10 @@
         <v>1.27568882957846</v>
       </c>
       <c r="E107">
-        <v>1.141376060320452</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="F107">
-        <v>1.184519049449823</v>
+        <v>1.18449332087706</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3750,10 +3735,10 @@
         <v>1.282596750137373</v>
       </c>
       <c r="E108">
-        <v>1.152686145146089</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="F108">
-        <v>1.192284119027465</v>
+        <v>1.192259299344501</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3776,10 +3761,10 @@
         <v>1.277651307009969</v>
       </c>
       <c r="E109">
-        <v>1.144203581526861</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="F109">
-        <v>1.172045535872592</v>
+        <v>1.172026216138153</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3802,10 +3787,10 @@
         <v>1.270272391867494</v>
       </c>
       <c r="E110">
-        <v>1.076343072573044</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="F110">
-        <v>1.1260933361461</v>
+        <v>1.126068563072869</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3828,10 +3813,10 @@
         <v>1.277415809718188</v>
       </c>
       <c r="E111">
-        <v>1.105560791705938</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="F111">
-        <v>1.138124490409056</v>
+        <v>1.138108246917013</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3854,10 +3839,10 @@
         <v>1.251118612135961</v>
       </c>
       <c r="E112">
-        <v>1.152686145146089</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="F112">
-        <v>1.15807610493987</v>
+        <v>1.158051285256906</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3880,10 +3865,10 @@
         <v>1.231493837820865</v>
       </c>
       <c r="E113">
-        <v>1.157398680490104</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="F113">
-        <v>1.159357317914869</v>
+        <v>1.159351421783611</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3906,10 +3891,10 @@
         <v>1.244289190674307</v>
       </c>
       <c r="E114">
-        <v>1.161168708765316</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="F114">
-        <v>1.163494016683181</v>
+        <v>1.163488423515189</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3932,10 +3917,10 @@
         <v>1.282439751942853</v>
       </c>
       <c r="E115">
-        <v>1.190386427898209</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="F115">
-        <v>1.187811701175702</v>
+        <v>1.1877899111254</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3958,10 +3943,10 @@
         <v>1.288248685140121</v>
       </c>
       <c r="E116">
-        <v>1.175306314797361</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="F116">
-        <v>1.18077552743913</v>
+        <v>1.180752525535763</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3984,10 +3969,10 @@
         <v>1.329696208493602</v>
       </c>
       <c r="E117">
-        <v>1.193213949104618</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="F117">
-        <v>1.206695521430202</v>
+        <v>1.206680140218225</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -4001,25 +3986,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.117333333333333</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="C118">
-        <v>1.298370070095431</v>
+        <v>1.285533316442868</v>
       </c>
       <c r="D118">
-        <v>1.329696208493602</v>
+        <v>1.280477274511343</v>
       </c>
       <c r="E118">
-        <v>1.193213949104618</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="F118">
-        <v>1.206695521430202</v>
+        <v>1.20640073764068</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="C119">
+        <v>1.265940376657377</v>
+      </c>
+      <c r="D119">
+        <v>1.265248449642829</v>
+      </c>
+      <c r="E119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="F119">
+        <v>1.198270972401115</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="C120">
+        <v>1.272612110463643</v>
+      </c>
+      <c r="D120">
+        <v>1.273176858466128</v>
+      </c>
+      <c r="E120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="F120">
+        <v>1.217212839465786</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="C121">
+        <v>1.273287729076936</v>
+      </c>
+      <c r="D121">
+        <v>1.247664651856504</v>
+      </c>
+      <c r="E121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="F121">
+        <v>1.202265058985801</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="C122">
+        <v>1.271260873237058</v>
+      </c>
+      <c r="D122">
+        <v>1.245780673522255</v>
+      </c>
+      <c r="E122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="F122">
+        <v>1.203492488106795</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="C123">
+        <v>1.276074655856769</v>
+      </c>
+      <c r="D123">
+        <v>1.271135881937358</v>
+      </c>
+      <c r="E123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="F123">
+        <v>1.23442403852538</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="C124">
+        <v>1.268305041803902</v>
+      </c>
+      <c r="D124">
+        <v>1.271685375618181</v>
+      </c>
+      <c r="E124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="F124">
+        <v>1.236659538988092</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="C125">
+        <v>1.299636854995355</v>
+      </c>
+      <c r="D125">
+        <v>1.254258576026376</v>
+      </c>
+      <c r="E125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="F125">
+        <v>1.276902881937859</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="C126">
+        <v>1.277256988430031</v>
+      </c>
+      <c r="D126">
+        <v>1.206452625794803</v>
+      </c>
+      <c r="E126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="F126">
+        <v>1.275709699959765</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="C127">
+        <v>1.31728739126763</v>
+      </c>
+      <c r="D127">
+        <v>1.233691812544156</v>
+      </c>
+      <c r="E127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="F127">
+        <v>1.314127421531841</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4131,18 +4350,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4174,172 +4393,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>0.3</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>0.15</v>
       </c>
       <c r="J3">
-        <v>12.07</v>
+        <v>1.256600022315979</v>
       </c>
       <c r="K3">
-        <v>1.24</v>
+        <v>12.42870044708252</v>
       </c>
       <c r="L3">
-        <v>2.59</v>
-      </c>
-      <c r="M3">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.5765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>0.15</v>
       </c>
       <c r="J4">
-        <v>10.5</v>
+        <v>1.161100029945374</v>
       </c>
       <c r="K4">
-        <v>1.19</v>
+        <v>10.14039993286133</v>
       </c>
       <c r="L4">
-        <v>-0.11</v>
-      </c>
-      <c r="M4">
-        <v>-7.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-7.3254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0.4</v>
       </c>
       <c r="J5">
-        <v>141.9</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K5">
-        <v>9.640000000000001</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L5">
-        <v>12.41</v>
-      </c>
-      <c r="M5">
-        <v>31.98</v>
+        <v>31.9832</v>
       </c>
     </row>
   </sheetData>
@@ -4357,19 +4561,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4377,16 +4581,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>150</v>
@@ -4397,16 +4601,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
         <v>151</v>
@@ -4417,16 +4621,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>152</v>
@@ -4437,16 +4641,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
         <v>153</v>
@@ -4457,16 +4661,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
         <v>154</v>
@@ -4477,16 +4681,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
         <v>155</v>
@@ -4497,16 +4701,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
         <v>156</v>
@@ -4517,16 +4721,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
         <v>157</v>
@@ -4537,16 +4741,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
         <v>158</v>
@@ -4557,16 +4761,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
         <v>159</v>
@@ -4577,16 +4781,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
         <v>160</v>
@@ -4597,16 +4801,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
         <v>161</v>
@@ -4617,16 +4821,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
         <v>162</v>
@@ -4637,16 +4841,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
         <v>163</v>
@@ -4657,16 +4861,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
         <v>164</v>
@@ -4677,16 +4881,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
         <v>165</v>
@@ -4697,16 +4901,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
         <v>166</v>
@@ -4717,16 +4921,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
         <v>167</v>
@@ -4737,16 +4941,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F20" t="s">
         <v>168</v>
@@ -4757,13 +4961,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
         <v>149</v>
@@ -4779,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4795,13 +4999,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4809,87 +5013,65 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
